--- a/DataGenerator/XLSXS/SkillRangeData.xlsx
+++ b/DataGenerator/XLSXS/SkillRangeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D785FC8C-6D78-4318-9E55-781CD70022A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B6542-CA61-42C6-8051-C58A1F26D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>스킬 범위 ID</t>
   </si>
@@ -169,6 +169,27 @@
   </si>
   <si>
     <t>Debuff</t>
+  </si>
+  <si>
+    <t>스킬 주체</t>
+  </si>
+  <si>
+    <t>skillOwner</t>
+  </si>
+  <si>
+    <t>eSkillOwner</t>
+  </si>
+  <si>
+    <t>Dokkaebi</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>#탐식</t>
+  </si>
+  <si>
+    <t>#반격</t>
   </si>
 </sst>
 </file>
@@ -196,9 +217,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -233,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -246,11 +268,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,343 +498,429 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>10111001</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="7">
+        <v>10040001</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10020001</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
         <v>2</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="K4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>10121001</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="A5" s="7">
+        <v>10040002</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10020002</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="b">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>10131001</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="7">
+        <v>10040003</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10020003</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="b">
+      <c r="K6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="7">
         <v>1</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="M6" s="2" t="b">
+      <c r="N6" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="7">
         <v>1</v>
       </c>
-      <c r="O6" s="2">
+      <c r="P6" s="7">
         <v>1</v>
       </c>
-      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="A7" s="7">
+        <v>30040001</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7">
+        <v>30020001</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="A8" s="7">
+        <v>10070001</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10050001</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -832,6 +943,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/SkillRangeData.xlsx
+++ b/DataGenerator/XLSXS/SkillRangeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B6542-CA61-42C6-8051-C58A1F26D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C9141-79E6-4639-ACA8-AE8881B15C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7965" yWindow="2220" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>스킬 범위 ID</t>
   </si>
@@ -171,32 +171,32 @@
     <t>Debuff</t>
   </si>
   <si>
-    <t>스킬 주체</t>
-  </si>
-  <si>
-    <t>skillOwner</t>
-  </si>
-  <si>
-    <t>eSkillOwner</t>
-  </si>
-  <si>
-    <t>Dokkaebi</t>
-  </si>
-  <si>
-    <t>Normal</t>
+    <t>#연기사슬</t>
+  </si>
+  <si>
+    <t>#회오리</t>
+  </si>
+  <si>
+    <t>MagicAttack</t>
+  </si>
+  <si>
+    <t>#연기결속</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>TARGET_ALLY</t>
   </si>
   <si>
     <t>#탐식</t>
-  </si>
-  <si>
-    <t>#반격</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -207,6 +207,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -215,32 +216,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,27 +237,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,455 +464,514 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="16.06640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="N2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="N3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="O3" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
-        <v>10040001</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="7">
-        <v>10020001</v>
-      </c>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>10103001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10101001</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2</v>
-      </c>
-      <c r="J4" s="7">
-        <v>2</v>
-      </c>
-      <c r="K4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>10040002</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="7">
-        <v>10020002</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>10103002</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10101002</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>0</v>
-      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>10040003</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>10103003</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10101003</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>10103004</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10101004</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>10103005</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10101005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>10103006</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10101006</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="7">
-        <v>10020003</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>30103001</v>
+      </c>
+      <c r="B10" s="2">
+        <v>30101001</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="7">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>1</v>
-      </c>
-      <c r="P6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>30040001</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="7">
-        <v>30020001</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>10070001</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7">
-        <v>10050001</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/SkillRangeData.xlsx
+++ b/DataGenerator/XLSXS/SkillRangeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C9141-79E6-4639-ACA8-AE8881B15C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4537FAB-6DAB-4D0D-89CC-81FDFBC427B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="2220" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1230" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>스킬 범위 ID</t>
   </si>
@@ -189,14 +190,116 @@
     <t>TARGET_ALLY</t>
   </si>
   <si>
-    <t>#탐식</t>
+    <t>#청혈</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산약</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>독침</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>난타</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐식</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#원령</t>
+  </si>
+  <si>
+    <t>#비명</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해기</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#반격</t>
+  </si>
+  <si>
+    <t>TARGET_SELF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -216,6 +319,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -225,10 +357,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -237,14 +395,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,61 +631,61 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1"/>
@@ -526,50 +693,50 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="1"/>
@@ -577,50 +744,50 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="1"/>
@@ -628,50 +795,50 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>10103001</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10101001</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
@@ -679,50 +846,50 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>10103002</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>10101002</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <v>0</v>
       </c>
       <c r="P5" s="1"/>
@@ -730,242 +897,622 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>10103003</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>10101003</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
         <v>1</v>
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>10103004</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>10101004</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
         <v>1</v>
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>10103005</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>10101005</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
         <v>1</v>
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>10103006</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>10101006</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>-1</v>
       </c>
-      <c r="G9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
+      <c r="G9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
         <v>1</v>
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>20102001</v>
+      </c>
+      <c r="B10" s="3">
+        <v>20101001</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>20102002</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20101002</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>20102003</v>
+      </c>
+      <c r="B12" s="3">
+        <v>20101003</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2</v>
+      </c>
+      <c r="M12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2</v>
+      </c>
+      <c r="O12" s="3">
+        <v>2</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
+        <v>20103004</v>
+      </c>
+      <c r="B13" s="3">
+        <v>20101004</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
         <v>30103001</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B14" s="3">
         <v>30101001</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="3">
+        <v>30103002</v>
+      </c>
+      <c r="B15" s="3">
+        <v>30101002</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>30103003</v>
+      </c>
+      <c r="B16" s="3">
+        <v>30101003</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>30103004</v>
+      </c>
+      <c r="B17" s="3">
+        <v>30101004</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>90103001</v>
+      </c>
+      <c r="B18" s="3">
+        <v>90101001</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>0</v>
       </c>
     </row>

--- a/DataGenerator/XLSXS/SkillRangeData.xlsx
+++ b/DataGenerator/XLSXS/SkillRangeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4537FAB-6DAB-4D0D-89CC-81FDFBC427B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7518575A-EB9B-4DF9-ABD1-04E9A920A6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1230" windowWidth="17120" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="11955" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -407,10 +407,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,16 +633,17 @@
   </sheetPr>
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -693,7 +694,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -744,7 +745,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -795,7 +796,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>10103001</v>
       </c>
@@ -846,7 +847,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10103002</v>
       </c>
@@ -897,7 +898,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>10103003</v>
       </c>
@@ -945,7 +946,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>10103004</v>
       </c>
@@ -993,7 +994,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10103005</v>
       </c>
@@ -1041,7 +1042,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10103006</v>
       </c>
@@ -1089,7 +1090,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>20102001</v>
       </c>
@@ -1137,7 +1138,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>20102002</v>
       </c>
@@ -1185,7 +1186,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>20102003</v>
       </c>
@@ -1233,7 +1234,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>20103004</v>
       </c>
@@ -1281,7 +1282,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>30103001</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>30103002</v>
       </c>
@@ -1375,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>30103003</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>30103004</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>90103001</v>
       </c>
